--- a/biology/Botanique/Ariocarpus_fissuratus/Ariocarpus_fissuratus.xlsx
+++ b/biology/Botanique/Ariocarpus_fissuratus/Ariocarpus_fissuratus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ariocarpus fissuratus est une espèce de plantes à fleurs de la famille des Cactaceae (les cactus) trouvée au nord du Mexique et au Texas. 
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ariocarpus fissuratus est généralement solitaire. Il a une couleur vert-grisâtre ce qui rend difficile de le repérer dans son habitât. Sa croissance est extrêmement lente. 
 </t>
@@ -542,7 +556,9 @@
           <t>Culture</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">En culture, Ariocarpus fissuratus est souvent greffé. Ils nécessitent très peu d'eau et d'engrais, beaucoup de lumière et un sol sableux bien drainé.
 </t>
@@ -573,9 +589,11 @@
           <t>Liste des variétés et sous-espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon Tropicos                                           (26 avril 2017)[1] (Attention liste brute contenant possiblement des synonymes) :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon Tropicos                                           (26 avril 2017) (Attention liste brute contenant possiblement des synonymes) :
 sous-espèce Ariocarpus fissuratus subsp. bravoanus (H.M. Hern. &amp; E.F. Anderson) Lüthy
 sous-espèce Ariocarpus fissuratus subsp. fissuratus
 sous-espèce Ariocarpus fissuratus subsp. hintonii (Stuppy &amp; N.P. Taylor) Halda
